--- a/A dog chasing cars/DanClark/CODELLIGENT/1P 2) Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/1P 2) Casos de Uso (Textual).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26979F9E-D922-4CCC-A91F-8260DE177BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA6463-01A1-420B-90E1-CDB2979E9794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -76,6 +76,19 @@
   </si>
   <si>
     <t>En el GRP Adelantos (además de los otros controles), el usuario ve un DTP + un Tbox + un CMD deshabilitados que se habilitan cuando selecciona el cabezal de fila (ver "ABM Adelantos"). En el DTP selecciona la FechaCancelacion y en Tbox ingresa ImportePagado. Si la fecha es anterior a FechaOtorgamiento o si el importe no coincide con SaldoAdeudado o si ya está cancelado, se muestra un MSB denegando.  Esto sucede cuando, habiendo completado lo anterior, pulsa el CMD Pagar.</t>
+  </si>
+  <si>
+    <t>Empleado
+Operario
+Administrativo
+Directivo</t>
+  </si>
+  <si>
+    <t>Adelanto</t>
+  </si>
+  <si>
+    <t>Empleado
+Adelanto</t>
   </si>
 </sst>
 </file>
@@ -156,9 +169,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E1C08B6-7183-424A-9333-A452722159F4}" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E1C08B6-7183-424A-9333-A452722159F4}" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{57CE3C13-2F9D-4AD3-871F-70BC26F05AF4}" name="NOMBRE" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{57CE3C13-2F9D-4AD3-871F-70BC26F05AF4}" name="NOMBRE" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BE0CA754-2D3E-4F44-B4DE-D2AF7D3EEDB3}" name="ACTOR" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{64E5D8C5-D66B-41DF-9BCA-6D8D54B31636}" name="DESCRIPCIÓN" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{2842A017-77DF-4D89-A2CC-483FA4FB7B9C}" name="CLASES CANDIDATAS" dataDxfId="0"/>
@@ -433,7 +446,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,7 +481,9 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -480,7 +495,9 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -492,7 +509,9 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -504,7 +523,9 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -516,7 +537,9 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -528,7 +551,9 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A dog chasing cars/DanClark/CODELLIGENT/1P 2) Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/1P 2) Casos de Uso (Textual).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA6463-01A1-420B-90E1-CDB2979E9794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321BD505-12E3-4450-AE9D-D63D1C273510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -556,9 +556,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>